--- a/FinalePresentatieStatistics.xlsx
+++ b/FinalePresentatieStatistics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Channels</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>relatief</t>
+  </si>
+  <si>
+    <t>Thrown at cycle 1</t>
+  </si>
+  <si>
+    <t>Tests:</t>
+  </si>
+  <si>
+    <t>NetworkPossible</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Thrown by TricksPrune</t>
+  </si>
+  <si>
+    <t>Thrown by TricksGen</t>
   </si>
 </sst>
 </file>
@@ -88,12 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,155 +415,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T19"/>
+  <dimension ref="A2:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>13</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>15</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>16</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>17</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>18</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>19</v>
       </c>
-      <c r="T3">
-        <v>20</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>28</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>126</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>430</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1688</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6224</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>19783</v>
+      </c>
+      <c r="K5">
+        <v>53100</v>
+      </c>
+      <c r="L5">
+        <v>104837</v>
+      </c>
+      <c r="M5">
+        <v>138583</v>
+      </c>
+      <c r="N5">
+        <v>109705</v>
+      </c>
+      <c r="O5">
+        <v>50927</v>
+      </c>
+      <c r="P5">
+        <v>15935</v>
+      </c>
+      <c r="Q5">
+        <v>3169</v>
+      </c>
+      <c r="R5">
+        <v>431</v>
+      </c>
+      <c r="S5">
+        <v>113</v>
+      </c>
+      <c r="T5">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -554,22 +612,58 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>130</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>533</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2318</v>
+      </c>
+      <c r="J6">
+        <v>9629</v>
+      </c>
+      <c r="K6">
+        <v>32465</v>
+      </c>
+      <c r="L6">
+        <v>80856</v>
+      </c>
+      <c r="M6">
+        <v>133247</v>
+      </c>
+      <c r="N6">
+        <v>129396</v>
+      </c>
+      <c r="O6">
+        <v>76399</v>
+      </c>
+      <c r="P6">
+        <v>29351</v>
+      </c>
+      <c r="Q6">
+        <v>7753</v>
+      </c>
+      <c r="R6">
+        <v>1360</v>
+      </c>
+      <c r="S6">
+        <v>350</v>
+      </c>
+      <c r="T6">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -577,25 +671,61 @@
         <v>1</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>33</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>296</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2081</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>18017</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>162858</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1717001</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1752279</v>
+      </c>
+      <c r="J7">
+        <v>145991797</v>
+      </c>
+      <c r="K7">
+        <v>670594182</v>
+      </c>
+      <c r="L7">
+        <v>1372678579</v>
+      </c>
+      <c r="M7">
+        <v>1209071512</v>
+      </c>
+      <c r="N7">
+        <v>425654091</v>
+      </c>
+      <c r="O7">
+        <v>85974811</v>
+      </c>
+      <c r="P7">
+        <v>9501038</v>
+      </c>
+      <c r="Q7">
+        <v>405604</v>
+      </c>
+      <c r="R7">
+        <v>2723</v>
+      </c>
+      <c r="S7">
+        <v>157</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -603,25 +733,61 @@
         <v>4</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>74</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>258</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1525</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9237</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>75676</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>557340</v>
+      </c>
+      <c r="J8">
+        <v>3785448</v>
+      </c>
+      <c r="K8">
+        <v>14399657</v>
+      </c>
+      <c r="L8">
+        <v>23763911</v>
+      </c>
+      <c r="M8">
+        <v>18768722</v>
+      </c>
+      <c r="N8">
+        <v>6503544</v>
+      </c>
+      <c r="O8">
+        <v>1075681</v>
+      </c>
+      <c r="P8">
+        <v>84554</v>
+      </c>
+      <c r="Q8">
+        <v>1475</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -629,25 +795,61 @@
         <v>5</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>62</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>468</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3226</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>18608</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>120400</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>708485</v>
+      </c>
+      <c r="J9">
+        <v>3914890</v>
+      </c>
+      <c r="K9">
+        <v>12738354</v>
+      </c>
+      <c r="L9">
+        <v>21229324</v>
+      </c>
+      <c r="M9">
+        <v>17256613</v>
+      </c>
+      <c r="N9">
+        <v>6752216</v>
+      </c>
+      <c r="O9">
+        <v>1220999</v>
+      </c>
+      <c r="P9">
+        <v>93616</v>
+      </c>
+      <c r="Q9">
+        <v>1529</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -655,25 +857,61 @@
         <v>6</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>51</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>107</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>241</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>922</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3705</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>18878</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>120429</v>
+      </c>
+      <c r="J10">
+        <v>817339</v>
+      </c>
+      <c r="K10">
+        <v>3285431</v>
+      </c>
+      <c r="L10">
+        <v>6479693</v>
+      </c>
+      <c r="M10">
+        <v>6645357</v>
+      </c>
+      <c r="N10">
+        <v>3203834</v>
+      </c>
+      <c r="O10">
+        <v>826148</v>
+      </c>
+      <c r="P10">
+        <v>137233</v>
+      </c>
+      <c r="Q10">
+        <v>10204</v>
+      </c>
+      <c r="R10">
+        <v>260</v>
+      </c>
+      <c r="S10">
+        <v>11</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -684,91 +922,682 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>22</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>31</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>140</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>678</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4291</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>34776</v>
       </c>
+      <c r="J11">
+        <v>268941</v>
+      </c>
+      <c r="K11">
+        <v>1196380</v>
+      </c>
+      <c r="L11">
+        <v>2574343</v>
+      </c>
+      <c r="M11">
+        <v>2865842</v>
+      </c>
+      <c r="N11">
+        <v>1458595</v>
+      </c>
+      <c r="O11">
+        <v>399461</v>
+      </c>
+      <c r="P11">
+        <v>71516</v>
+      </c>
+      <c r="Q11">
+        <v>5275</v>
+      </c>
+      <c r="R11">
+        <v>35</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <f>B5*(7*8/2)^($T$3-B$3)</f>
-        <v>1.1190373035819316E+26</v>
+      <c r="C13">
+        <f t="shared" ref="C13:S13" si="0">C5* (7*8/2)^($T$3-C$3)</f>
+        <v>3.9965617985068985E+24</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.1418747995733996E+24</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.4273434994667495E+23</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>2.2939449098572759E+22</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2.7959079116741175E+21</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.9198443147059056E+20</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>5.1618802925544931E+19</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>5.859660635535573E+18</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>5.617160111259648E+17</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>3.9607628099551232E+16</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1869890511978496</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>52865775800320</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>876472411136</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>9794543360</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>69565888</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>337904</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>3164</v>
+      </c>
+      <c r="T13">
+        <f>T5* (7*8/2)^($T$3-T$3)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
+      <c r="C14">
+        <f>C6* (7*8/2)^($T$3-C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>D6* (7*8/2)^($T$3-D$3)</f>
+        <v>2.8546869989334989E+23</v>
+      </c>
+      <c r="E14">
+        <f>E6* (7*8/2)^($T$3-E$3)</f>
+        <v>4.5878898197145519E+22</v>
+      </c>
+      <c r="F14">
+        <f>F6* (7*8/2)^($T$3-F$3)</f>
+        <v>6.0079509543881036E+21</v>
+      </c>
+      <c r="G14">
+        <f>G6* (7*8/2)^($T$3-G$3)</f>
+        <v>8.4527448492473319E+20</v>
+      </c>
+      <c r="H14">
+        <f>H6* (7*8/2)^($T$3-H$3)</f>
+        <v>1.2377233529255022E+20</v>
+      </c>
+      <c r="I14">
+        <f>I6* (7*8/2)^($T$3-I$3)</f>
+        <v>1.9224354945599799E+19</v>
+      </c>
+      <c r="J14">
+        <f>J6* (7*8/2)^($T$3-J$3)</f>
+        <v>2.8520786665102377E+18</v>
+      </c>
+      <c r="K14">
+        <f>K6* (7*8/2)^($T$3-K$3)</f>
+        <v>3.4342957252739072E+17</v>
+      </c>
+      <c r="L14">
+        <f>L6* (7*8/2)^($T$3-L$3)</f>
+        <v>3.0547558377455616E+16</v>
+      </c>
+      <c r="M14">
+        <f>M6* (7*8/2)^($T$3-M$3)</f>
+        <v>1797892245438464</v>
+      </c>
+      <c r="N14">
+        <f>N6* (7*8/2)^($T$3-N$3)</f>
+        <v>62354677776384</v>
+      </c>
+      <c r="O14">
+        <f>O6* (7*8/2)^($T$3-O$3)</f>
+        <v>1314854904832</v>
+      </c>
+      <c r="P14">
+        <f>P6* (7*8/2)^($T$3-P$3)</f>
+        <v>18040768256</v>
+      </c>
+      <c r="Q14">
+        <f>Q6* (7*8/2)^($T$3-Q$3)</f>
+        <v>170193856</v>
+      </c>
+      <c r="R14">
+        <f>R6* (7*8/2)^($T$3-R$3)</f>
+        <v>1066240</v>
+      </c>
+      <c r="S14">
+        <f>S6* (7*8/2)^($T$3-S$3)</f>
+        <v>9800</v>
+      </c>
+      <c r="T14">
+        <f>T6* (7*8/2)^($T$3-T$3)</f>
+        <v>205</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
+      <c r="C15">
+        <f>C7* (7*8/2)^($T$3-C$3)</f>
+        <v>1.3188653935072765E+26</v>
+      </c>
+      <c r="D15">
+        <f>D7* (7*8/2)^($T$3-D$3)</f>
+        <v>4.2249367584215784E+25</v>
+      </c>
+      <c r="E15">
+        <f>E7* (7*8/2)^($T$3-E$3)</f>
+        <v>1.0608220794251093E+25</v>
+      </c>
+      <c r="F15">
+        <f>F7* (7*8/2)^($T$3-F$3)</f>
+        <v>3.2801591619760744E+24</v>
+      </c>
+      <c r="G15">
+        <f>G7* (7*8/2)^($T$3-G$3)</f>
+        <v>1.0589208620451708E+24</v>
+      </c>
+      <c r="H15">
+        <f>H7* (7*8/2)^($T$3-H$3)</f>
+        <v>3.9871899337644279E+23</v>
+      </c>
+      <c r="I15">
+        <f>I7* (7*8/2)^($T$3-I$3)</f>
+        <v>1.4532542476152144E+22</v>
+      </c>
+      <c r="J15">
+        <f>J7* (7*8/2)^($T$3-J$3)</f>
+        <v>4.3242298235454705E+22</v>
+      </c>
+      <c r="K15">
+        <f>K7* (7*8/2)^($T$3-K$3)</f>
+        <v>7.0938510168986673E+21</v>
+      </c>
+      <c r="L15">
+        <f>L7* (7*8/2)^($T$3-L$3)</f>
+        <v>5.1860071021922084E+20</v>
+      </c>
+      <c r="M15">
+        <f>M7* (7*8/2)^($T$3-M$3)</f>
+        <v>1.631391547731175E+19</v>
+      </c>
+      <c r="N15">
+        <f>N7* (7*8/2)^($T$3-N$3)</f>
+        <v>2.0511857931083366E+17</v>
+      </c>
+      <c r="O15">
+        <f>O7* (7*8/2)^($T$3-O$3)</f>
+        <v>1479658136040448</v>
+      </c>
+      <c r="P15">
+        <f>P7* (7*8/2)^($T$3-P$3)</f>
+        <v>5839870012928</v>
+      </c>
+      <c r="Q15">
+        <f>Q7* (7*8/2)^($T$3-Q$3)</f>
+        <v>8903819008</v>
+      </c>
+      <c r="R15">
+        <f>R7* (7*8/2)^($T$3-R$3)</f>
+        <v>2134832</v>
+      </c>
+      <c r="S15">
+        <f>S7* (7*8/2)^($T$3-S$3)</f>
+        <v>4396</v>
+      </c>
+      <c r="T15">
+        <f>T7* (7*8/2)^($T$3-T$3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>C8* (7*8/2)^($T$3-C$3)</f>
+        <v>2.3979370791041391E+25</v>
+      </c>
+      <c r="D16">
+        <f>D8* (7*8/2)^($T$3-D$3)</f>
+        <v>1.0562341896053946E+25</v>
+      </c>
+      <c r="E16">
+        <f>E8* (7*8/2)^($T$3-E$3)</f>
+        <v>1.3151950816515049E+24</v>
+      </c>
+      <c r="F16">
+        <f>F8* (7*8/2)^($T$3-F$3)</f>
+        <v>2.7764015774066236E+23</v>
+      </c>
+      <c r="G16">
+        <f>G8* (7*8/2)^($T$3-G$3)</f>
+        <v>6.0060003209613542E+22</v>
+      </c>
+      <c r="H16">
+        <f>H8* (7*8/2)^($T$3-H$3)</f>
+        <v>1.7573349428891239E+22</v>
+      </c>
+      <c r="I16">
+        <f>I8* (7*8/2)^($T$3-I$3)</f>
+        <v>4.6223045666007731E+21</v>
+      </c>
+      <c r="J16">
+        <f>J8* (7*8/2)^($T$3-J$3)</f>
+        <v>1.1212374580936594E+21</v>
+      </c>
+      <c r="K16">
+        <f>K8* (7*8/2)^($T$3-K$3)</f>
+        <v>1.5232613731868318E+20</v>
+      </c>
+      <c r="L16">
+        <f>L8* (7*8/2)^($T$3-L$3)</f>
+        <v>8.9780530640788521E+18</v>
+      </c>
+      <c r="M16">
+        <f>M8* (7*8/2)^($T$3-M$3)</f>
+        <v>2.5324502420760166E+17</v>
+      </c>
+      <c r="N16">
+        <f>N8* (7*8/2)^($T$3-N$3)</f>
+        <v>3133994795237376</v>
+      </c>
+      <c r="O16">
+        <f>O8* (7*8/2)^($T$3-O$3)</f>
+        <v>18512865860608</v>
+      </c>
+      <c r="P16">
+        <f>P8* (7*8/2)^($T$3-P$3)</f>
+        <v>51971623424</v>
+      </c>
+      <c r="Q16">
+        <f>Q8* (7*8/2)^($T$3-Q$3)</f>
+        <v>32379200</v>
+      </c>
+      <c r="R16">
+        <f>R8* (7*8/2)^($T$3-R$3)</f>
+        <v>1568</v>
+      </c>
+      <c r="S16">
+        <f>S8* (7*8/2)^($T$3-S$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>T8* (7*8/2)^($T$3-T$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>C9* (7*8/2)^($T$3-C$3)</f>
+        <v>5.9948426977603478E+25</v>
+      </c>
+      <c r="D17">
+        <f>D9* (7*8/2)^($T$3-D$3)</f>
+        <v>8.8495296966938467E+24</v>
+      </c>
+      <c r="E17">
+        <f>E9* (7*8/2)^($T$3-E$3)</f>
+        <v>2.385702706251567E+24</v>
+      </c>
+      <c r="F17">
+        <f>F9* (7*8/2)^($T$3-F$3)</f>
+        <v>5.8732272057139462E+23</v>
+      </c>
+      <c r="G17">
+        <f>G9* (7*8/2)^($T$3-G$3)</f>
+        <v>1.2099128934984181E+23</v>
+      </c>
+      <c r="H17">
+        <f>H9* (7*8/2)^($T$3-H$3)</f>
+        <v>2.7959079116741175E+22</v>
+      </c>
+      <c r="I17">
+        <f>I9* (7*8/2)^($T$3-I$3)</f>
+        <v>5.8758270550618092E+21</v>
+      </c>
+      <c r="J17">
+        <f>J9* (7*8/2)^($T$3-J$3)</f>
+        <v>1.1595777599682485E+21</v>
+      </c>
+      <c r="K17">
+        <f>K9* (7*8/2)^($T$3-K$3)</f>
+        <v>1.3475211670791861E+20</v>
+      </c>
+      <c r="L17">
+        <f>L9* (7*8/2)^($T$3-L$3)</f>
+        <v>8.0204810305224049E+18</v>
+      </c>
+      <c r="M17">
+        <f>M9* (7*8/2)^($T$3-M$3)</f>
+        <v>2.3284224556824986E+17</v>
+      </c>
+      <c r="N17">
+        <f>N9* (7*8/2)^($T$3-N$3)</f>
+        <v>3253827420913664</v>
+      </c>
+      <c r="O17">
+        <f>O9* (7*8/2)^($T$3-O$3)</f>
+        <v>21013842117632</v>
+      </c>
+      <c r="P17">
+        <f>P9* (7*8/2)^($T$3-P$3)</f>
+        <v>57541636096</v>
+      </c>
+      <c r="Q17">
+        <f>Q9* (7*8/2)^($T$3-Q$3)</f>
+        <v>33564608</v>
+      </c>
+      <c r="R17">
+        <f>R9* (7*8/2)^($T$3-R$3)</f>
+        <v>7056</v>
+      </c>
+      <c r="S17">
+        <f>S9* (7*8/2)^($T$3-S$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>T9* (7*8/2)^($T$3-T$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>C10* (7*8/2)^($T$3-C$3)</f>
+        <v>2.0382465172385181E+26</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:T18" si="1">D10* (7*8/2)^($T$3-D$3)</f>
+        <v>1.5272575444294219E+25</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.2285349406124522E+24</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.6785850848320702E+23</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.4090322820354896E+22</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>4.383816408354152E+21</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>9.9877905165817007E+20</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>2.4209316909407116E+20</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>3.4754787121461199E+19</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>2.4480409640037908E+18</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>8.9665326937718784E+16</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>1543896540225536</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>14218311102464</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>84351086848</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>223998208</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>203840</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
+      <c r="C19">
+        <f>C11* (7*8/2)^($T$3-C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>D11* (7*8/2)^($T$3-D$3)</f>
+        <v>3.1401556988268488E+24</v>
+      </c>
+      <c r="E19">
+        <f>E11* (7*8/2)^($T$3-E$3)</f>
+        <v>1.5802731601239012E+23</v>
+      </c>
+      <c r="F19">
+        <f>F11* (7*8/2)^($T$3-F$3)</f>
+        <v>2.5488276776191955E+22</v>
+      </c>
+      <c r="G19">
+        <f>G11* (7*8/2)^($T$3-G$3)</f>
+        <v>4.4084315444536085E+21</v>
+      </c>
+      <c r="H19">
+        <f>H11* (7*8/2)^($T$3-H$3)</f>
+        <v>9.9644857549781048E+20</v>
+      </c>
+      <c r="I19">
+        <f>I11* (7*8/2)^($T$3-I$3)</f>
+        <v>2.8841508524080182E+20</v>
+      </c>
+      <c r="J19">
+        <f>J11* (7*8/2)^($T$3-J$3)</f>
+        <v>7.9659454631834026E+19</v>
+      </c>
+      <c r="K19">
+        <f>K11* (7*8/2)^($T$3-K$3)</f>
+        <v>1.2655853133538263E+19</v>
+      </c>
+      <c r="L19">
+        <f>L11* (7*8/2)^($T$3-L$3)</f>
+        <v>9.7259192980229325E+17</v>
+      </c>
+      <c r="M19">
+        <f>M11* (7*8/2)^($T$3-M$3)</f>
+        <v>3.8668601232687104E+16</v>
+      </c>
+      <c r="N19">
+        <f>N11* (7*8/2)^($T$3-N$3)</f>
+        <v>702882787962880</v>
+      </c>
+      <c r="O19">
+        <f>O11* (7*8/2)^($T$3-O$3)</f>
+        <v>6874870811648</v>
+      </c>
+      <c r="P19">
+        <f>P11* (7*8/2)^($T$3-P$3)</f>
+        <v>43957738496</v>
+      </c>
+      <c r="Q19">
+        <f>Q11* (7*8/2)^($T$3-Q$3)</f>
+        <v>115796800</v>
+      </c>
+      <c r="R19">
+        <f>R11* (7*8/2)^($T$3-R$3)</f>
+        <v>27440</v>
+      </c>
+      <c r="S19">
+        <f>S11* (7*8/2)^($T$3-S$3)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>T11* (7*8/2)^($T$3-T$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4">
+        <f>(7*8/2)^18</f>
+        <v>1.1190373035819316E+26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <f>SUM(B5:T6)</f>
+        <v>1009162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
+        <f>SUM(B7:T11)-SUM(B10:T10)</f>
+        <v>4065493309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <f>SUM(C5:T11)</f>
+        <v>4088052314</v>
+      </c>
+      <c r="C24" s="3">
+        <f>B24-B23-B22</f>
+        <v>21549843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4">
+        <f xml:space="preserve"> (7 * 8 / 2) ^19</f>
+        <v>3.1333044500294087E+27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A12:S12"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="A12:T12"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="C2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/FinalePresentatieStatistics.xlsx
+++ b/FinalePresentatieStatistics.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Channel8" sheetId="1" r:id="rId1"/>
+    <sheet name="Channel9" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Channels</t>
   </si>
@@ -106,14 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T25" sqref="A2:T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,26 +437,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -519,28 +521,28 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -977,28 +979,28 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1082,71 +1084,71 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <f>C6* (7*8/2)^($T$3-C$3)</f>
+        <f t="shared" ref="C14:S14" si="1">C6* (7*8/2)^($T$3-C$3)</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>D6* (7*8/2)^($T$3-D$3)</f>
+        <f t="shared" si="1"/>
         <v>2.8546869989334989E+23</v>
       </c>
       <c r="E14">
-        <f>E6* (7*8/2)^($T$3-E$3)</f>
+        <f t="shared" si="1"/>
         <v>4.5878898197145519E+22</v>
       </c>
       <c r="F14">
-        <f>F6* (7*8/2)^($T$3-F$3)</f>
+        <f t="shared" si="1"/>
         <v>6.0079509543881036E+21</v>
       </c>
       <c r="G14">
-        <f>G6* (7*8/2)^($T$3-G$3)</f>
+        <f t="shared" si="1"/>
         <v>8.4527448492473319E+20</v>
       </c>
       <c r="H14">
-        <f>H6* (7*8/2)^($T$3-H$3)</f>
+        <f t="shared" si="1"/>
         <v>1.2377233529255022E+20</v>
       </c>
       <c r="I14">
-        <f>I6* (7*8/2)^($T$3-I$3)</f>
+        <f t="shared" si="1"/>
         <v>1.9224354945599799E+19</v>
       </c>
       <c r="J14">
-        <f>J6* (7*8/2)^($T$3-J$3)</f>
+        <f t="shared" si="1"/>
         <v>2.8520786665102377E+18</v>
       </c>
       <c r="K14">
-        <f>K6* (7*8/2)^($T$3-K$3)</f>
+        <f t="shared" si="1"/>
         <v>3.4342957252739072E+17</v>
       </c>
       <c r="L14">
-        <f>L6* (7*8/2)^($T$3-L$3)</f>
+        <f t="shared" si="1"/>
         <v>3.0547558377455616E+16</v>
       </c>
       <c r="M14">
-        <f>M6* (7*8/2)^($T$3-M$3)</f>
+        <f t="shared" si="1"/>
         <v>1797892245438464</v>
       </c>
       <c r="N14">
-        <f>N6* (7*8/2)^($T$3-N$3)</f>
+        <f t="shared" si="1"/>
         <v>62354677776384</v>
       </c>
       <c r="O14">
-        <f>O6* (7*8/2)^($T$3-O$3)</f>
+        <f t="shared" si="1"/>
         <v>1314854904832</v>
       </c>
       <c r="P14">
-        <f>P6* (7*8/2)^($T$3-P$3)</f>
+        <f t="shared" si="1"/>
         <v>18040768256</v>
       </c>
       <c r="Q14">
-        <f>Q6* (7*8/2)^($T$3-Q$3)</f>
+        <f t="shared" si="1"/>
         <v>170193856</v>
       </c>
       <c r="R14">
-        <f>R6* (7*8/2)^($T$3-R$3)</f>
+        <f t="shared" si="1"/>
         <v>1066240</v>
       </c>
       <c r="S14">
-        <f>S6* (7*8/2)^($T$3-S$3)</f>
+        <f t="shared" si="1"/>
         <v>9800</v>
       </c>
       <c r="T14">
@@ -1159,71 +1161,71 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <f>C7* (7*8/2)^($T$3-C$3)</f>
+        <f t="shared" ref="C15:S15" si="2">C7* (7*8/2)^($T$3-C$3)</f>
         <v>1.3188653935072765E+26</v>
       </c>
       <c r="D15">
-        <f>D7* (7*8/2)^($T$3-D$3)</f>
+        <f t="shared" si="2"/>
         <v>4.2249367584215784E+25</v>
       </c>
       <c r="E15">
-        <f>E7* (7*8/2)^($T$3-E$3)</f>
+        <f t="shared" si="2"/>
         <v>1.0608220794251093E+25</v>
       </c>
       <c r="F15">
-        <f>F7* (7*8/2)^($T$3-F$3)</f>
+        <f t="shared" si="2"/>
         <v>3.2801591619760744E+24</v>
       </c>
       <c r="G15">
-        <f>G7* (7*8/2)^($T$3-G$3)</f>
+        <f t="shared" si="2"/>
         <v>1.0589208620451708E+24</v>
       </c>
       <c r="H15">
-        <f>H7* (7*8/2)^($T$3-H$3)</f>
+        <f t="shared" si="2"/>
         <v>3.9871899337644279E+23</v>
       </c>
       <c r="I15">
-        <f>I7* (7*8/2)^($T$3-I$3)</f>
+        <f t="shared" si="2"/>
         <v>1.4532542476152144E+22</v>
       </c>
       <c r="J15">
-        <f>J7* (7*8/2)^($T$3-J$3)</f>
+        <f t="shared" si="2"/>
         <v>4.3242298235454705E+22</v>
       </c>
       <c r="K15">
-        <f>K7* (7*8/2)^($T$3-K$3)</f>
+        <f t="shared" si="2"/>
         <v>7.0938510168986673E+21</v>
       </c>
       <c r="L15">
-        <f>L7* (7*8/2)^($T$3-L$3)</f>
+        <f t="shared" si="2"/>
         <v>5.1860071021922084E+20</v>
       </c>
       <c r="M15">
-        <f>M7* (7*8/2)^($T$3-M$3)</f>
+        <f t="shared" si="2"/>
         <v>1.631391547731175E+19</v>
       </c>
       <c r="N15">
-        <f>N7* (7*8/2)^($T$3-N$3)</f>
+        <f t="shared" si="2"/>
         <v>2.0511857931083366E+17</v>
       </c>
       <c r="O15">
-        <f>O7* (7*8/2)^($T$3-O$3)</f>
+        <f t="shared" si="2"/>
         <v>1479658136040448</v>
       </c>
       <c r="P15">
-        <f>P7* (7*8/2)^($T$3-P$3)</f>
+        <f t="shared" si="2"/>
         <v>5839870012928</v>
       </c>
       <c r="Q15">
-        <f>Q7* (7*8/2)^($T$3-Q$3)</f>
+        <f t="shared" si="2"/>
         <v>8903819008</v>
       </c>
       <c r="R15">
-        <f>R7* (7*8/2)^($T$3-R$3)</f>
+        <f t="shared" si="2"/>
         <v>2134832</v>
       </c>
       <c r="S15">
-        <f>S7* (7*8/2)^($T$3-S$3)</f>
+        <f t="shared" si="2"/>
         <v>4396</v>
       </c>
       <c r="T15">
@@ -1236,71 +1238,71 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <f>C8* (7*8/2)^($T$3-C$3)</f>
+        <f t="shared" ref="C16:S16" si="3">C8* (7*8/2)^($T$3-C$3)</f>
         <v>2.3979370791041391E+25</v>
       </c>
       <c r="D16">
-        <f>D8* (7*8/2)^($T$3-D$3)</f>
+        <f t="shared" si="3"/>
         <v>1.0562341896053946E+25</v>
       </c>
       <c r="E16">
-        <f>E8* (7*8/2)^($T$3-E$3)</f>
+        <f t="shared" si="3"/>
         <v>1.3151950816515049E+24</v>
       </c>
       <c r="F16">
-        <f>F8* (7*8/2)^($T$3-F$3)</f>
+        <f t="shared" si="3"/>
         <v>2.7764015774066236E+23</v>
       </c>
       <c r="G16">
-        <f>G8* (7*8/2)^($T$3-G$3)</f>
+        <f t="shared" si="3"/>
         <v>6.0060003209613542E+22</v>
       </c>
       <c r="H16">
-        <f>H8* (7*8/2)^($T$3-H$3)</f>
+        <f t="shared" si="3"/>
         <v>1.7573349428891239E+22</v>
       </c>
       <c r="I16">
-        <f>I8* (7*8/2)^($T$3-I$3)</f>
+        <f t="shared" si="3"/>
         <v>4.6223045666007731E+21</v>
       </c>
       <c r="J16">
-        <f>J8* (7*8/2)^($T$3-J$3)</f>
+        <f t="shared" si="3"/>
         <v>1.1212374580936594E+21</v>
       </c>
       <c r="K16">
-        <f>K8* (7*8/2)^($T$3-K$3)</f>
+        <f t="shared" si="3"/>
         <v>1.5232613731868318E+20</v>
       </c>
       <c r="L16">
-        <f>L8* (7*8/2)^($T$3-L$3)</f>
+        <f t="shared" si="3"/>
         <v>8.9780530640788521E+18</v>
       </c>
       <c r="M16">
-        <f>M8* (7*8/2)^($T$3-M$3)</f>
+        <f t="shared" si="3"/>
         <v>2.5324502420760166E+17</v>
       </c>
       <c r="N16">
-        <f>N8* (7*8/2)^($T$3-N$3)</f>
+        <f t="shared" si="3"/>
         <v>3133994795237376</v>
       </c>
       <c r="O16">
-        <f>O8* (7*8/2)^($T$3-O$3)</f>
+        <f t="shared" si="3"/>
         <v>18512865860608</v>
       </c>
       <c r="P16">
-        <f>P8* (7*8/2)^($T$3-P$3)</f>
+        <f t="shared" si="3"/>
         <v>51971623424</v>
       </c>
       <c r="Q16">
-        <f>Q8* (7*8/2)^($T$3-Q$3)</f>
+        <f t="shared" si="3"/>
         <v>32379200</v>
       </c>
       <c r="R16">
-        <f>R8* (7*8/2)^($T$3-R$3)</f>
+        <f t="shared" si="3"/>
         <v>1568</v>
       </c>
       <c r="S16">
-        <f>S8* (7*8/2)^($T$3-S$3)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T16">
@@ -1313,71 +1315,71 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <f>C9* (7*8/2)^($T$3-C$3)</f>
+        <f t="shared" ref="C17:S17" si="4">C9* (7*8/2)^($T$3-C$3)</f>
         <v>5.9948426977603478E+25</v>
       </c>
       <c r="D17">
-        <f>D9* (7*8/2)^($T$3-D$3)</f>
+        <f t="shared" si="4"/>
         <v>8.8495296966938467E+24</v>
       </c>
       <c r="E17">
-        <f>E9* (7*8/2)^($T$3-E$3)</f>
+        <f t="shared" si="4"/>
         <v>2.385702706251567E+24</v>
       </c>
       <c r="F17">
-        <f>F9* (7*8/2)^($T$3-F$3)</f>
+        <f t="shared" si="4"/>
         <v>5.8732272057139462E+23</v>
       </c>
       <c r="G17">
-        <f>G9* (7*8/2)^($T$3-G$3)</f>
+        <f t="shared" si="4"/>
         <v>1.2099128934984181E+23</v>
       </c>
       <c r="H17">
-        <f>H9* (7*8/2)^($T$3-H$3)</f>
+        <f t="shared" si="4"/>
         <v>2.7959079116741175E+22</v>
       </c>
       <c r="I17">
-        <f>I9* (7*8/2)^($T$3-I$3)</f>
+        <f t="shared" si="4"/>
         <v>5.8758270550618092E+21</v>
       </c>
       <c r="J17">
-        <f>J9* (7*8/2)^($T$3-J$3)</f>
+        <f t="shared" si="4"/>
         <v>1.1595777599682485E+21</v>
       </c>
       <c r="K17">
-        <f>K9* (7*8/2)^($T$3-K$3)</f>
+        <f t="shared" si="4"/>
         <v>1.3475211670791861E+20</v>
       </c>
       <c r="L17">
-        <f>L9* (7*8/2)^($T$3-L$3)</f>
+        <f t="shared" si="4"/>
         <v>8.0204810305224049E+18</v>
       </c>
       <c r="M17">
-        <f>M9* (7*8/2)^($T$3-M$3)</f>
+        <f t="shared" si="4"/>
         <v>2.3284224556824986E+17</v>
       </c>
       <c r="N17">
-        <f>N9* (7*8/2)^($T$3-N$3)</f>
+        <f t="shared" si="4"/>
         <v>3253827420913664</v>
       </c>
       <c r="O17">
-        <f>O9* (7*8/2)^($T$3-O$3)</f>
+        <f t="shared" si="4"/>
         <v>21013842117632</v>
       </c>
       <c r="P17">
-        <f>P9* (7*8/2)^($T$3-P$3)</f>
+        <f t="shared" si="4"/>
         <v>57541636096</v>
       </c>
       <c r="Q17">
-        <f>Q9* (7*8/2)^($T$3-Q$3)</f>
+        <f t="shared" si="4"/>
         <v>33564608</v>
       </c>
       <c r="R17">
-        <f>R9* (7*8/2)^($T$3-R$3)</f>
+        <f t="shared" si="4"/>
         <v>7056</v>
       </c>
       <c r="S17">
-        <f>S9* (7*8/2)^($T$3-S$3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17">
@@ -1394,71 +1396,71 @@
         <v>2.0382465172385181E+26</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:T18" si="1">D10* (7*8/2)^($T$3-D$3)</f>
+        <f t="shared" ref="D18:T18" si="5">D10* (7*8/2)^($T$3-D$3)</f>
         <v>1.5272575444294219E+25</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2285349406124522E+24</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6785850848320702E+23</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4090322820354896E+22</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.383816408354152E+21</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.9877905165817007E+20</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4209316909407116E+20</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.4754787121461199E+19</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4480409640037908E+18</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.9665326937718784E+16</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1543896540225536</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14218311102464</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>84351086848</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>223998208</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>203840</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1471,71 +1473,71 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>D11* (7*8/2)^($T$3-D$3)</f>
+        <f t="shared" ref="D19:T19" si="6">D11* (7*8/2)^($T$3-D$3)</f>
         <v>3.1401556988268488E+24</v>
       </c>
       <c r="E19">
-        <f>E11* (7*8/2)^($T$3-E$3)</f>
+        <f t="shared" si="6"/>
         <v>1.5802731601239012E+23</v>
       </c>
       <c r="F19">
-        <f>F11* (7*8/2)^($T$3-F$3)</f>
+        <f t="shared" si="6"/>
         <v>2.5488276776191955E+22</v>
       </c>
       <c r="G19">
-        <f>G11* (7*8/2)^($T$3-G$3)</f>
+        <f t="shared" si="6"/>
         <v>4.4084315444536085E+21</v>
       </c>
       <c r="H19">
-        <f>H11* (7*8/2)^($T$3-H$3)</f>
+        <f t="shared" si="6"/>
         <v>9.9644857549781048E+20</v>
       </c>
       <c r="I19">
-        <f>I11* (7*8/2)^($T$3-I$3)</f>
+        <f t="shared" si="6"/>
         <v>2.8841508524080182E+20</v>
       </c>
       <c r="J19">
-        <f>J11* (7*8/2)^($T$3-J$3)</f>
+        <f t="shared" si="6"/>
         <v>7.9659454631834026E+19</v>
       </c>
       <c r="K19">
-        <f>K11* (7*8/2)^($T$3-K$3)</f>
+        <f t="shared" si="6"/>
         <v>1.2655853133538263E+19</v>
       </c>
       <c r="L19">
-        <f>L11* (7*8/2)^($T$3-L$3)</f>
+        <f t="shared" si="6"/>
         <v>9.7259192980229325E+17</v>
       </c>
       <c r="M19">
-        <f>M11* (7*8/2)^($T$3-M$3)</f>
+        <f t="shared" si="6"/>
         <v>3.8668601232687104E+16</v>
       </c>
       <c r="N19">
-        <f>N11* (7*8/2)^($T$3-N$3)</f>
+        <f t="shared" si="6"/>
         <v>702882787962880</v>
       </c>
       <c r="O19">
-        <f>O11* (7*8/2)^($T$3-O$3)</f>
+        <f t="shared" si="6"/>
         <v>6874870811648</v>
       </c>
       <c r="P19">
-        <f>P11* (7*8/2)^($T$3-P$3)</f>
+        <f t="shared" si="6"/>
         <v>43957738496</v>
       </c>
       <c r="Q19">
-        <f>Q11* (7*8/2)^($T$3-Q$3)</f>
+        <f t="shared" si="6"/>
         <v>115796800</v>
       </c>
       <c r="R19">
-        <f>R11* (7*8/2)^($T$3-R$3)</f>
+        <f t="shared" si="6"/>
         <v>27440</v>
       </c>
       <c r="S19">
-        <f>S11* (7*8/2)^($T$3-S$3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T19">
-        <f>T11* (7*8/2)^($T$3-T$3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1548,7 +1550,7 @@
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <f>(7*8/2)^18</f>
         <v>1.1190373035819316E+26</v>
       </c>
@@ -1557,7 +1559,7 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f>SUM(B5:T6)</f>
         <v>1009162</v>
       </c>
@@ -1566,7 +1568,7 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f>SUM(B7:T11)-SUM(B10:T10)</f>
         <v>4065493309</v>
       </c>
@@ -1575,11 +1577,11 @@
       <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f>SUM(C5:T11)</f>
         <v>4088052314</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f>B24-B23-B22</f>
         <v>21549843</v>
       </c>
@@ -1588,7 +1590,7 @@
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <f xml:space="preserve"> (7 * 8 / 2) ^19</f>
         <v>3.1333044500294087E+27</v>
       </c>
@@ -1602,4 +1604,1275 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Z25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>149</v>
+      </c>
+      <c r="G5">
+        <v>532</v>
+      </c>
+      <c r="H5">
+        <v>2275</v>
+      </c>
+      <c r="I5">
+        <v>9746</v>
+      </c>
+      <c r="J5">
+        <v>43464</v>
+      </c>
+      <c r="K5">
+        <v>183320</v>
+      </c>
+      <c r="L5">
+        <v>713523</v>
+      </c>
+      <c r="M5">
+        <v>2335534</v>
+      </c>
+      <c r="N5">
+        <v>5831160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>132</v>
+      </c>
+      <c r="H6">
+        <v>564</v>
+      </c>
+      <c r="I6">
+        <v>2688</v>
+      </c>
+      <c r="J6">
+        <v>13933</v>
+      </c>
+      <c r="K6">
+        <v>71547</v>
+      </c>
+      <c r="L6">
+        <v>335842</v>
+      </c>
+      <c r="M6">
+        <v>1355798</v>
+      </c>
+      <c r="N6">
+        <v>4165541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>359</v>
+      </c>
+      <c r="E7">
+        <v>2752</v>
+      </c>
+      <c r="F7">
+        <v>24563</v>
+      </c>
+      <c r="G7">
+        <v>248109</v>
+      </c>
+      <c r="H7">
+        <v>3175837</v>
+      </c>
+      <c r="I7">
+        <v>47864147</v>
+      </c>
+      <c r="J7">
+        <v>851427132</v>
+      </c>
+      <c r="K7">
+        <v>11361143984</v>
+      </c>
+      <c r="L7">
+        <v>110813202842</v>
+      </c>
+      <c r="M7">
+        <v>760419237851</v>
+      </c>
+      <c r="N7">
+        <v>2705016171371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>98</v>
+      </c>
+      <c r="E8">
+        <v>339</v>
+      </c>
+      <c r="F8">
+        <v>2243</v>
+      </c>
+      <c r="G8">
+        <v>14409</v>
+      </c>
+      <c r="H8">
+        <v>128183</v>
+      </c>
+      <c r="I8">
+        <v>1439701</v>
+      </c>
+      <c r="J8">
+        <v>19712816</v>
+      </c>
+      <c r="K8">
+        <v>229034884</v>
+      </c>
+      <c r="L8">
+        <v>1889696414</v>
+      </c>
+      <c r="M8">
+        <v>10459263985</v>
+      </c>
+      <c r="N8">
+        <v>29882873221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>92</v>
+      </c>
+      <c r="E9">
+        <v>665</v>
+      </c>
+      <c r="F9">
+        <v>4858</v>
+      </c>
+      <c r="G9">
+        <v>36876</v>
+      </c>
+      <c r="H9">
+        <v>350249</v>
+      </c>
+      <c r="I9">
+        <v>3398487</v>
+      </c>
+      <c r="J9">
+        <v>38321582</v>
+      </c>
+      <c r="K9">
+        <v>341604054</v>
+      </c>
+      <c r="L9">
+        <v>2326227291</v>
+      </c>
+      <c r="M9">
+        <v>11264328424</v>
+      </c>
+      <c r="N9">
+        <v>29964610822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>138</v>
+      </c>
+      <c r="E10">
+        <v>324</v>
+      </c>
+      <c r="F10">
+        <v>1261</v>
+      </c>
+      <c r="G10">
+        <v>5418</v>
+      </c>
+      <c r="H10">
+        <v>30715</v>
+      </c>
+      <c r="I10">
+        <v>248317</v>
+      </c>
+      <c r="J10">
+        <v>2824405</v>
+      </c>
+      <c r="K10">
+        <v>27832758</v>
+      </c>
+      <c r="L10">
+        <v>216744704</v>
+      </c>
+      <c r="M10">
+        <v>1258278337</v>
+      </c>
+      <c r="N10">
+        <v>4131737148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>192</v>
+      </c>
+      <c r="G11">
+        <v>991</v>
+      </c>
+      <c r="H11">
+        <v>6536</v>
+      </c>
+      <c r="I11">
+        <v>64958</v>
+      </c>
+      <c r="J11">
+        <v>892832</v>
+      </c>
+      <c r="K11">
+        <v>9788129</v>
+      </c>
+      <c r="L11">
+        <v>79731223</v>
+      </c>
+      <c r="M11">
+        <v>497607516</v>
+      </c>
+      <c r="N11">
+        <v>1776805082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f>C5* (7*8/2)^($Z$3-C$3)</f>
+        <v>1.9259043800372759E+33</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:T19" si="0">D5* (7*8/2)^($Z$3-D$3)</f>
+        <v>6.1904069358341019E+32</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.8608342042337802E+31</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.3072146165522692E+31</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1.6669179674156454E+30</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2.5458098656488944E+29</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>3.8950491288248231E+28</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>6.2038057860822801E+27</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>9.3450217972230179E+26</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1.2990336935842009E+26</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1.5185902299032322E+25</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.354101858657612E+24</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:Z13" si="1">U5* (7*8/2)^($Z$3-U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:R19" si="2">C6* (7*8/2)^($Z$3-C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1.3756459857409116E+32</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>2.2108596199407509E+31</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2.8951733118271731E+30</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>4.1359618740388192E+29</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>6.3113703922020942E+28</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.0742758114386543E+28</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>1.9887176978070221E+27</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>3.6472194770124118E+26</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>6.114309892192756E+25</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>8.8155496623998728E+24</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>9.6731470417798303E+23</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14:Z14" si="3">U6* (7*8/2)^($Z$3-U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>8.0887983961565588E+34</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.4692845444049363E+34</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.7603174156410514E+33</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.154974001770026E+33</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>7.7740103379234659E+32</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.5538800730957306E+32</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.9129202141831858E+32</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1.2152789821298181E+32</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>5.7915196471672025E+31</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2.0174554174951406E+31</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>4.9443306123181708E+30</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>6.281541623540373E+29</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15:Z15" si="4">U7* (7*8/2)^($Z$3-U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>1.3481330660260932E+34</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6.7406653301304672E+33</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>8.3275712351101603E+32</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.9678405267964697E+32</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>4.5147783820473748E+31</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.4344155868504275E+31</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>5.75385401787218E+30</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>2.8136959773784128E+30</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1.1675409029590036E+30</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3.440364658786387E+29</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>6.8007299827789899E+28</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>6.9393489752615054E+27</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16:Z16" si="5">U8* (7*8/2)^($Z$3-U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>4.0443991980782794E+34</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6.3279715344081929E+33</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.6335796080673324E+33</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>4.2620460451080024E+32</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.1554373489928447E+32</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>3.9194169654226797E+31</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.3582263316922314E+31</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>5.4698060956981997E+30</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1.7413797352442444E+30</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>4.2351089312385157E+29</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>7.3241918512458708E+28</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>6.9583299391582792E+27</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ref="U17:Z17" si="6">U9* (7*8/2)^($Z$3-U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>1.2903559346249748E+35</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>9.49195730161229E+33</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.959094631786703E+32</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.1063071352163836E+32</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1.6976243510259336E+31</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3.4371230779519029E+30</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>9.9241423611983754E+29</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>4.0313961166113845E+29</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.4188180786975417E+29</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>3.9460350038041426E+28</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>8.1814659476894225E+27</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>9.5946483231321052E+26</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:Z18" si="7">U10* (7*8/2)^($Z$3-U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.7883397814631851E+33</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9.826042755292226E+31</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.68446447233581E+31</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3.1051047099791442E+30</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>7.314027816211505E+29</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>2.596086613074111E+29</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1.2743779513158969E+29</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>4.9896508214614194E+28</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1.451579628234487E+28</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>3.2354995137044301E+27</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>4.126065935437358E+26</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:Z19" si="8">U11* (7*8/2)^($Z$3-U$3)</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3">
+        <f>(8*9/2)^24</f>
+        <v>2.2452257707354558E+37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUM(B5:Z6)</f>
+        <v>15065834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4">
+        <f>SUM(B7:Z11)-SUM(B10:Z10)</f>
+        <v>3677298446235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4">
+        <f>SUM(C5:Z11)</f>
+        <v>3682951215661</v>
+      </c>
+      <c r="C24" s="4">
+        <f>B24-B23-B22</f>
+        <v>5637703592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <f xml:space="preserve"> (9 * 8 / 2) ^ 25</f>
+        <v>8.0828127746476405E+38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:Z4"/>
+    <mergeCell ref="A12:Z12"/>
+    <mergeCell ref="C2:Z2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FinalePresentatieStatistics.xlsx
+++ b/FinalePresentatieStatistics.xlsx
@@ -1611,7 +1611,7 @@
   <dimension ref="A2:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,6 +1811,9 @@
       <c r="N5">
         <v>5831160</v>
       </c>
+      <c r="O5">
+        <v>9750102</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1855,6 +1858,9 @@
       <c r="N6">
         <v>4165541</v>
       </c>
+      <c r="O6">
+        <v>8467049</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1899,6 +1905,9 @@
       <c r="N7">
         <v>2705016171371</v>
       </c>
+      <c r="O7">
+        <v>3910795044006</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1943,6 +1952,9 @@
       <c r="N8">
         <v>29882873221</v>
       </c>
+      <c r="O8">
+        <v>36222127450</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1987,6 +1999,9 @@
       <c r="N9">
         <v>29964610822</v>
       </c>
+      <c r="O9">
+        <v>36057529802</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2031,6 +2046,9 @@
       <c r="N10">
         <v>4131737148</v>
       </c>
+      <c r="O10">
+        <v>6035786714</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2074,6 +2092,9 @@
       </c>
       <c r="N11">
         <v>1776805082</v>
+      </c>
+      <c r="O11">
+        <v>2757081980</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2160,7 +2181,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0862563245816426E+22</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -2261,7 +2282,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0221551043048251E+22</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
@@ -2362,7 +2383,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2434215722805838E+28</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
@@ -2463,7 +2484,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.0040855693854779E+26</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -2564,7 +2585,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9904346478653616E+26</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
@@ -2665,7 +2686,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0057854256199943E+25</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
@@ -2766,7 +2787,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2865885503726096E+25</v>
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
@@ -2833,7 +2854,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B5:Z6)</f>
-        <v>15065834</v>
+        <v>33282985</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2842,7 +2863,7 @@
       </c>
       <c r="B23" s="4">
         <f>SUM(B7:Z11)-SUM(B10:Z10)</f>
-        <v>3677298446235</v>
+        <v>7663130229473</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2851,11 +2872,11 @@
       </c>
       <c r="B24" s="4">
         <f>SUM(C5:Z11)</f>
-        <v>3682951215661</v>
+        <v>7674837002764</v>
       </c>
       <c r="C24" s="4">
         <f>B24-B23-B22</f>
-        <v>5637703592</v>
+        <v>11673490306</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">

--- a/FinalePresentatieStatistics.xlsx
+++ b/FinalePresentatieStatistics.xlsx
@@ -1611,7 +1611,7 @@
   <dimension ref="A2:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,6 +1624,8 @@
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1814,6 +1816,39 @@
       <c r="O5">
         <v>9750102</v>
       </c>
+      <c r="P5">
+        <v>10017982</v>
+      </c>
+      <c r="Q5">
+        <v>6352362</v>
+      </c>
+      <c r="R5">
+        <v>2717910</v>
+      </c>
+      <c r="S5">
+        <v>876489</v>
+      </c>
+      <c r="T5">
+        <v>224487</v>
+      </c>
+      <c r="U5">
+        <v>46584</v>
+      </c>
+      <c r="V5">
+        <v>8067</v>
+      </c>
+      <c r="W5">
+        <v>1563</v>
+      </c>
+      <c r="X5">
+        <v>455</v>
+      </c>
+      <c r="Y5">
+        <v>161</v>
+      </c>
+      <c r="Z5">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1861,6 +1896,39 @@
       <c r="O6">
         <v>8467049</v>
       </c>
+      <c r="P6">
+        <v>10432831</v>
+      </c>
+      <c r="Q6">
+        <v>7924918</v>
+      </c>
+      <c r="R6">
+        <v>4060450</v>
+      </c>
+      <c r="S6">
+        <v>1566990</v>
+      </c>
+      <c r="T6">
+        <v>479055</v>
+      </c>
+      <c r="U6">
+        <v>117047</v>
+      </c>
+      <c r="V6">
+        <v>25508</v>
+      </c>
+      <c r="W6">
+        <v>6483</v>
+      </c>
+      <c r="X6">
+        <v>2007</v>
+      </c>
+      <c r="Y6">
+        <v>781</v>
+      </c>
+      <c r="Z6">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1908,6 +1976,39 @@
       <c r="O7">
         <v>3910795044006</v>
       </c>
+      <c r="P7">
+        <v>2303065144281</v>
+      </c>
+      <c r="Q7">
+        <v>633400703731</v>
+      </c>
+      <c r="R7">
+        <v>97944922272</v>
+      </c>
+      <c r="S7">
+        <v>9436404999</v>
+      </c>
+      <c r="T7">
+        <v>647531103</v>
+      </c>
+      <c r="U7">
+        <v>39976765</v>
+      </c>
+      <c r="V7">
+        <v>1488289</v>
+      </c>
+      <c r="W7">
+        <v>68674</v>
+      </c>
+      <c r="X7">
+        <v>4320</v>
+      </c>
+      <c r="Y7">
+        <v>214</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1955,6 +2056,39 @@
       <c r="O8">
         <v>36222127450</v>
       </c>
+      <c r="P8">
+        <v>18578442688</v>
+      </c>
+      <c r="Q8">
+        <v>4213773583</v>
+      </c>
+      <c r="R8">
+        <v>521981960</v>
+      </c>
+      <c r="S8">
+        <v>45798471</v>
+      </c>
+      <c r="T8">
+        <v>3097448</v>
+      </c>
+      <c r="U8">
+        <v>160469</v>
+      </c>
+      <c r="V8">
+        <v>3498</v>
+      </c>
+      <c r="W8">
+        <v>24</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2002,6 +2136,39 @@
       <c r="O9">
         <v>36057529802</v>
       </c>
+      <c r="P9">
+        <v>18533843762</v>
+      </c>
+      <c r="Q9">
+        <v>4390083919</v>
+      </c>
+      <c r="R9">
+        <v>587489988</v>
+      </c>
+      <c r="S9">
+        <v>51775714</v>
+      </c>
+      <c r="T9">
+        <v>3423901</v>
+      </c>
+      <c r="U9">
+        <v>175082</v>
+      </c>
+      <c r="V9">
+        <v>3553</v>
+      </c>
+      <c r="W9">
+        <v>24</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2049,6 +2216,39 @@
       <c r="O10">
         <v>6035786714</v>
       </c>
+      <c r="P10">
+        <v>3925353966</v>
+      </c>
+      <c r="Q10">
+        <v>1271260390</v>
+      </c>
+      <c r="R10">
+        <v>257042628</v>
+      </c>
+      <c r="S10">
+        <v>40263545</v>
+      </c>
+      <c r="T10">
+        <v>4782767</v>
+      </c>
+      <c r="U10">
+        <v>456328</v>
+      </c>
+      <c r="V10">
+        <v>23280</v>
+      </c>
+      <c r="W10">
+        <v>1182</v>
+      </c>
+      <c r="X10">
+        <v>46</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2095,6 +2295,39 @@
       </c>
       <c r="O11">
         <v>2757081980</v>
+      </c>
+      <c r="P11">
+        <v>1891010981</v>
+      </c>
+      <c r="Q11">
+        <v>642463856</v>
+      </c>
+      <c r="R11">
+        <v>135478740</v>
+      </c>
+      <c r="S11">
+        <v>21813933</v>
+      </c>
+      <c r="T11">
+        <v>2528122</v>
+      </c>
+      <c r="U11">
+        <v>236459</v>
+      </c>
+      <c r="V11">
+        <v>11069</v>
+      </c>
+      <c r="W11">
+        <v>416</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -2185,47 +2418,47 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9672938772129571E+21</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.719818161710275E+19</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0268318292973978E+18</v>
       </c>
       <c r="S13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1826403418554368E+16</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108178108674048</v>
       </c>
       <c r="U13">
         <f t="shared" ref="U13:Z13" si="1">U5* (7*8/2)^($Z$3-U$3)</f>
-        <v>0</v>
+        <v>801727782912</v>
       </c>
       <c r="V13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4958429952</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34310976</v>
       </c>
       <c r="X13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>356720</v>
       </c>
       <c r="Y13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4508</v>
       </c>
       <c r="Z13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -2286,47 +2519,47 @@
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.0901708096797871E+21</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.3833395997370221E+19</v>
       </c>
       <c r="R14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5340461241434112E+18</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.114328404901888E+16</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>230851959582720</v>
       </c>
       <c r="U14">
         <f t="shared" ref="U14:Z14" si="3">U6* (7*8/2)^($Z$3-U$3)</f>
-        <v>0</v>
+        <v>2014421943296</v>
       </c>
       <c r="V14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15678645248</v>
       </c>
       <c r="W14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>142314816</v>
       </c>
       <c r="X14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1573488</v>
       </c>
       <c r="Y14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21868</v>
       </c>
       <c r="Z14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -2387,43 +2620,43 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.8216044922496234E+26</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.7004014452760133E+24</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7003787361225791E+22</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2732473806178643E+20</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1203896007412531E+17</v>
       </c>
       <c r="U15">
         <f t="shared" ref="U15:Z15" si="4">U7* (7*8/2)^($Z$3-U$3)</f>
-        <v>0</v>
+        <v>688014837099520</v>
       </c>
       <c r="V15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>914785763584</v>
       </c>
       <c r="W15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1507531648</v>
       </c>
       <c r="X15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3386880</v>
       </c>
       <c r="Y15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5992</v>
       </c>
       <c r="Z15">
         <f t="shared" si="4"/>
@@ -2488,35 +2721,35 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5028746544218415E+24</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.4575218245399707E+22</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9720582758334202E+20</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.1795549516190515E+17</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1492630158344192</v>
       </c>
       <c r="U16">
         <f t="shared" ref="U16:Z16" si="5">U8* (7*8/2)^($Z$3-U$3)</f>
-        <v>0</v>
+        <v>2761730542592</v>
       </c>
       <c r="V16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2150066688</v>
       </c>
       <c r="W16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>526848</v>
       </c>
       <c r="X16">
         <f t="shared" si="5"/>
@@ -2589,35 +2822,35 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.489664596742554E+24</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.6440309368906272E+22</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2195489146879266E+20</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9860600765975757E+17</v>
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1649944693755904</v>
       </c>
       <c r="U17">
         <f t="shared" ref="U17:Z17" si="6">U9* (7*8/2)^($Z$3-U$3)</f>
-        <v>0</v>
+        <v>3013225650176</v>
       </c>
       <c r="V17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2183872768</v>
       </c>
       <c r="W17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>526848</v>
       </c>
       <c r="X17">
         <f t="shared" si="6"/>
@@ -2690,39 +2923,39 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1626771528642593E+24</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.3447972040927275E+22</v>
       </c>
       <c r="R18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7111218515937067E+19</v>
       </c>
       <c r="S18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4327313432469504E+17</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2304769043591168</v>
       </c>
       <c r="U18">
         <f t="shared" ref="U18:Z18" si="7">U10* (7*8/2)^($Z$3-U$3)</f>
-        <v>0</v>
+        <v>7853572808704</v>
       </c>
       <c r="V18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14309191680</v>
       </c>
       <c r="W18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25947264</v>
       </c>
       <c r="X18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>36064</v>
       </c>
       <c r="Y18">
         <f t="shared" si="7"/>
@@ -2791,39 +3024,39 @@
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6011133835774184E+23</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.79627560235266E+21</v>
       </c>
       <c r="R19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.1184138704043377E+19</v>
       </c>
       <c r="S19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.943338385345577E+17</v>
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1218277479129088</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19:Z19" si="8">U11* (7*8/2)^($Z$3-U$3)</f>
-        <v>0</v>
+        <v>4069546406912</v>
       </c>
       <c r="V19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6803627264</v>
       </c>
       <c r="W19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9132032</v>
       </c>
       <c r="X19">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7840</v>
       </c>
       <c r="Y19">
         <f t="shared" si="8"/>
@@ -2854,7 +3087,7 @@
       </c>
       <c r="B22" s="4">
         <f>SUM(B5:Z6)</f>
-        <v>33282985</v>
+        <v>78145401</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2863,7 +3096,7 @@
       </c>
       <c r="B23" s="4">
         <f>SUM(B7:Z11)-SUM(B10:Z10)</f>
-        <v>7663130229473</v>
+        <v>10757290071791</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2872,11 +3105,11 @@
       </c>
       <c r="B24" s="4">
         <f>SUM(C5:Z11)</f>
-        <v>7674837002764</v>
+        <v>10774540891630</v>
       </c>
       <c r="C24" s="4">
         <f>B24-B23-B22</f>
-        <v>11673490306</v>
+        <v>17172674438</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">

--- a/FinalePresentatieStatistics.xlsx
+++ b/FinalePresentatieStatistics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Channels</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Thrown by TricksGen</t>
+  </si>
+  <si>
+    <t>Gen:</t>
+  </si>
+  <si>
+    <t>Snoei:</t>
+  </si>
+  <si>
+    <t>Permutatie:</t>
+  </si>
+  <si>
+    <t>Opbouw Permutatie:</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z25"/>
+  <dimension ref="A2:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,9 +1638,11 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1674,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1784,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1849,8 +1863,12 @@
       <c r="Z5">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <f>SUM(B5:Z5)</f>
+        <v>39115952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1929,8 +1947,12 @@
       <c r="Z6">
         <v>241</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA11" si="0">SUM(B6:Z6)</f>
+        <v>39029449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2009,8 +2031,12 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>10543843787643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2089,8 +2115,12 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>102067551891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2169,8 +2199,12 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>103563209166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2249,8 +2283,12 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>17172674438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2329,8 +2367,12 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>7815523091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2360,7 +2402,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2369,398 +2411,398 @@
         <v>1.9259043800372759E+33</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:T19" si="0">D5* (7*8/2)^($Z$3-D$3)</f>
+        <f t="shared" ref="D13:T19" si="1">D5* (7*8/2)^($Z$3-D$3)</f>
         <v>6.1904069358341019E+32</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8608342042337802E+31</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3072146165522692E+31</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6669179674156454E+30</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5458098656488944E+29</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8950491288248231E+28</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2038057860822801E+27</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3450217972230179E+26</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2990336935842009E+26</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5185902299032322E+25</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.354101858657612E+24</v>
       </c>
       <c r="O13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0862563245816426E+22</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9672938772129571E+21</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.719818161710275E+19</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0268318292973978E+18</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1826403418554368E+16</v>
       </c>
       <c r="T13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108178108674048</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:Z13" si="1">U5* (7*8/2)^($Z$3-U$3)</f>
+        <f t="shared" ref="U13:Z13" si="2">U5* (7*8/2)^($Z$3-U$3)</f>
         <v>801727782912</v>
       </c>
       <c r="V13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4958429952</v>
       </c>
       <c r="W13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34310976</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>356720</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4508</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:R19" si="2">C6* (7*8/2)^($Z$3-C$3)</f>
+        <f t="shared" ref="C14:R19" si="3">C6* (7*8/2)^($Z$3-C$3)</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3756459857409116E+32</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2108596199407509E+31</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8951733118271731E+30</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1359618740388192E+29</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.3113703922020942E+28</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0742758114386543E+28</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9887176978070221E+27</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6472194770124118E+26</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.114309892192756E+25</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.8155496623998728E+24</v>
       </c>
       <c r="N14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6731470417798303E+23</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0221551043048251E+22</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0901708096797871E+21</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3833395997370221E+19</v>
       </c>
       <c r="R14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5340461241434112E+18</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.114328404901888E+16</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230851959582720</v>
       </c>
       <c r="U14">
-        <f t="shared" ref="U14:Z14" si="3">U6* (7*8/2)^($Z$3-U$3)</f>
+        <f t="shared" ref="U14:Z14" si="4">U6* (7*8/2)^($Z$3-U$3)</f>
         <v>2014421943296</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15678645248</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>142314816</v>
       </c>
       <c r="X14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1573488</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21868</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="C15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0887983961565588E+34</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4692845444049363E+34</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7603174156410514E+33</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.154974001770026E+33</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7740103379234659E+32</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5538800730957306E+32</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9129202141831858E+32</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2152789821298181E+32</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7915196471672025E+31</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0174554174951406E+31</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9443306123181708E+30</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.281541623540373E+29</v>
       </c>
       <c r="O15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2434215722805838E+28</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8216044922496234E+26</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7004014452760133E+24</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7003787361225791E+22</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2732473806178643E+20</v>
       </c>
       <c r="T15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1203896007412531E+17</v>
       </c>
       <c r="U15">
-        <f t="shared" ref="U15:Z15" si="4">U7* (7*8/2)^($Z$3-U$3)</f>
+        <f t="shared" ref="U15:Z15" si="5">U7* (7*8/2)^($Z$3-U$3)</f>
         <v>688014837099520</v>
       </c>
       <c r="V15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>914785763584</v>
       </c>
       <c r="W15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1507531648</v>
       </c>
       <c r="X15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3386880</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5992</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3481330660260932E+34</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7406653301304672E+33</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3275712351101603E+32</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9678405267964697E+32</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5147783820473748E+31</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4344155868504275E+31</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.75385401787218E+30</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8136959773784128E+30</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1675409029590036E+30</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.440364658786387E+29</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8007299827789899E+28</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9393489752615054E+27</v>
       </c>
       <c r="O16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0040855693854779E+26</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5028746544218415E+24</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4575218245399707E+22</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9720582758334202E+20</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1795549516190515E+17</v>
       </c>
       <c r="T16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1492630158344192</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:Z16" si="5">U8* (7*8/2)^($Z$3-U$3)</f>
+        <f t="shared" ref="U16:Z16" si="6">U8* (7*8/2)^($Z$3-U$3)</f>
         <v>2761730542592</v>
       </c>
       <c r="V16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2150066688</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>526848</v>
       </c>
       <c r="X16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2769,99 +2811,99 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0443991980782794E+34</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3279715344081929E+33</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6335796080673324E+33</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2620460451080024E+32</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1554373489928447E+32</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9194169654226797E+31</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3582263316922314E+31</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4698060956981997E+30</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7413797352442444E+30</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2351089312385157E+29</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3241918512458708E+28</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9583299391582792E+27</v>
       </c>
       <c r="O17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9904346478653616E+26</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.489664596742554E+24</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6440309368906272E+22</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2195489146879266E+20</v>
       </c>
       <c r="S17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9860600765975757E+17</v>
       </c>
       <c r="T17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1649944693755904</v>
       </c>
       <c r="U17">
-        <f t="shared" ref="U17:Z17" si="6">U9* (7*8/2)^($Z$3-U$3)</f>
+        <f t="shared" ref="U17:Z17" si="7">U9* (7*8/2)^($Z$3-U$3)</f>
         <v>3013225650176</v>
       </c>
       <c r="V17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2183872768</v>
       </c>
       <c r="W17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>526848</v>
       </c>
       <c r="X17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2870,99 +2912,99 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2903559346249748E+35</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.49195730161229E+33</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.959094631786703E+32</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1063071352163836E+32</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6976243510259336E+31</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4371230779519029E+30</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9241423611983754E+29</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0313961166113845E+29</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4188180786975417E+29</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9460350038041426E+28</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1814659476894225E+27</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5946483231321052E+26</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0057854256199943E+25</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1626771528642593E+24</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3447972040927275E+22</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7111218515937067E+19</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.4327313432469504E+17</v>
       </c>
       <c r="T18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2304769043591168</v>
       </c>
       <c r="U18">
-        <f t="shared" ref="U18:Z18" si="7">U10* (7*8/2)^($Z$3-U$3)</f>
+        <f t="shared" ref="U18:Z18" si="8">U10* (7*8/2)^($Z$3-U$3)</f>
         <v>7853572808704</v>
       </c>
       <c r="V18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14309191680</v>
       </c>
       <c r="W18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25947264</v>
       </c>
       <c r="X18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36064</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2971,99 +3013,99 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7883397814631851E+33</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.826042755292226E+31</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.68446447233581E+31</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1051047099791442E+30</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.314027816211505E+29</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.596086613074111E+29</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2743779513158969E+29</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9896508214614194E+28</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.451579628234487E+28</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2354995137044301E+27</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.126065935437358E+26</v>
       </c>
       <c r="O19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2865885503726096E+25</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6011133835774184E+23</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.79627560235266E+21</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1184138704043377E+19</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.943338385345577E+17</v>
       </c>
       <c r="T19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1218277479129088</v>
       </c>
       <c r="U19">
-        <f t="shared" ref="U19:Z19" si="8">U11* (7*8/2)^($Z$3-U$3)</f>
+        <f t="shared" ref="U19:Z19" si="9">U11* (7*8/2)^($Z$3-U$3)</f>
         <v>4069546406912</v>
       </c>
       <c r="V19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6803627264</v>
       </c>
       <c r="W19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9132032</v>
       </c>
       <c r="X19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7840</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3111,6 +3153,13 @@
         <f>B24-B23-B22</f>
         <v>17172674438</v>
       </c>
+      <c r="U24" t="s">
+        <v>17</v>
+      </c>
+      <c r="V24">
+        <f>SUM(AA5:AA6)</f>
+        <v>78145401</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3119,6 +3168,31 @@
       <c r="B25" s="3">
         <f xml:space="preserve"> (9 * 8 / 2) ^ 25</f>
         <v>8.0828127746476405E+38</v>
+      </c>
+      <c r="U25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <f>SUM(AA7:AA9)</f>
+        <v>10749474548700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26">
+        <f>AA11</f>
+        <v>7815523091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27">
+        <f>AA10-AA11</f>
+        <v>9357151347</v>
       </c>
     </row>
   </sheetData>

--- a/FinalePresentatieStatistics.xlsx
+++ b/FinalePresentatieStatistics.xlsx
@@ -1623,7 +1623,7 @@
   <dimension ref="A2:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1640,6 +1640,7 @@
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
